--- a/SPPSApi/Doc/Template/FS0101.xlsx
+++ b/SPPSApi/Doc/Template/FS0101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B9B05B-FDA6-4066-854D-4D4582C3C8A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17F7ED-EC1A-4E63-B9AB-DDB1B3821DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -555,7 +555,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
